--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>asmdefAssetbundleName</t>
   </si>
   <si>
+    <t>asmdefName</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -31,7 +34,46 @@
     <t>路径ID</t>
   </si>
   <si>
-    <t>Asmdef文件名称</t>
+    <t>Asmdef资源文件名称</t>
+  </si>
+  <si>
+    <t>Asmdef名称</t>
+  </si>
+  <si>
+    <t>m_1312111497</t>
+  </si>
+  <si>
+    <t>Cinemachine</t>
+  </si>
+  <si>
+    <t>m_377736839</t>
+  </si>
+  <si>
+    <t>GameExample</t>
+  </si>
+  <si>
+    <t>m__1967578267</t>
+  </si>
+  <si>
+    <t>GameHotfix</t>
+  </si>
+  <si>
+    <t>m__63628856</t>
+  </si>
+  <si>
+    <t>StrayFogCore</t>
+  </si>
+  <si>
+    <t>m_2033014866</t>
+  </si>
+  <si>
+    <t>StrayFogRunning</t>
+  </si>
+  <si>
+    <t>m_435346609</t>
+  </si>
+  <si>
+    <t>XLua</t>
   </si>
 </sst>
 </file>
@@ -40,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="22">
@@ -50,7 +92,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -58,65 +99,103 @@
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,92 +203,33 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -246,175 +266,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +457,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -448,6 +477,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,18 +522,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,196 +545,317 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="54">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="19" applyFill="1" borderId="6" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="5" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="23" applyFill="1" borderId="8" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="23" applyFill="1" borderId="6" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="12" applyFill="1" borderId="3" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,45 +1196,125 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1" style="53"/>
+    <col min="2" max="3" width="32.75" customWidth="1" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="35.25" customHeight="1" s="50" customFormat="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="33.75" customHeight="1" s="51" customFormat="1">
+      <c r="A2" s="51" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" ht="18.75" s="52" customFormat="1">
+      <c r="A3" s="52" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="53">
+        <v>-444119248</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="53">
+        <v>-1949415658</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="53">
+        <v>-1189599574</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="53">
+        <v>-408574838</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="53">
+        <v>-998712748</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="53">
+        <v>688748016</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A65445 $A1:$XFD3">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:C3">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF($A$4:$A$65445,C1)&gt;1,NOT(ISBLANK(C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A65445 A1:B3 D1:XFD3">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($A$4:$A$65445,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>asmdefName</t>
   </si>
   <si>
+    <t>asmdefDLLPath</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -40,40 +43,61 @@
     <t>Asmdef名称</t>
   </si>
   <si>
+    <t>AsmdefDLL路径</t>
+  </si>
+  <si>
     <t>m_1312111497</t>
   </si>
   <si>
     <t>Cinemachine</t>
   </si>
   <si>
+    <t>Library/ScriptAssemblies/Cinemachine.dll</t>
+  </si>
+  <si>
     <t>m_377736839</t>
   </si>
   <si>
     <t>GameExample</t>
   </si>
   <si>
+    <t>Library/ScriptAssemblies/GameExample.dll</t>
+  </si>
+  <si>
     <t>m__1967578267</t>
   </si>
   <si>
     <t>GameHotfix</t>
   </si>
   <si>
+    <t>Library/ScriptAssemblies/GameHotfix.dll</t>
+  </si>
+  <si>
     <t>m__63628856</t>
   </si>
   <si>
     <t>StrayFogCore</t>
   </si>
   <si>
+    <t>Library/ScriptAssemblies/StrayFogCore.dll</t>
+  </si>
+  <si>
     <t>m_2033014866</t>
   </si>
   <si>
     <t>StrayFogRunning</t>
   </si>
   <si>
+    <t>Library/ScriptAssemblies/StrayFogRunning.dll</t>
+  </si>
+  <si>
     <t>m_435346609</t>
   </si>
   <si>
     <t>XLua</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/XLua.dll</t>
   </si>
 </sst>
 </file>
@@ -87,7 +111,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -108,18 +132,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,13 +173,26 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -153,48 +211,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -207,28 +240,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -260,181 +278,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,17 +469,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,11 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,28 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,153 +554,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -699,148 +717,148 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="19" applyFill="1" borderId="6" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="42" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="14" applyFill="1" borderId="4" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="5" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="23" applyFill="1" borderId="8" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="23" applyFill="1" borderId="6" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="12" applyFill="1" borderId="3" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="43" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="5" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="23" applyFill="1" borderId="4" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1196,16 +1214,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1" style="53"/>
-    <col min="2" max="3" width="32.75" customWidth="1" style="53"/>
+    <col min="2" max="2" width="32.75" customWidth="1" style="53"/>
+    <col min="3" max="3" width="23.625" customWidth="1" style="53"/>
+    <col min="4" max="4" width="32.75" customWidth="1" style="53"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" s="50" customFormat="1">
@@ -1218,27 +1238,36 @@
       <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="50" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1" s="51" customFormat="1">
       <c r="A2" s="51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="18.75" s="52" customFormat="1">
       <c r="A3" s="52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1246,10 +1275,13 @@
         <v>-444119248</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1257,10 +1289,13 @@
         <v>-1949415658</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1268,10 +1303,13 @@
         <v>-1189599574</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1279,10 +1317,13 @@
         <v>-408574838</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1290,10 +1331,13 @@
         <v>-998712748</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1301,20 +1345,28 @@
         <v>688748016</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C3">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF($A$4:$A$65445,C1)&gt;1,NOT(ISBLANK(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A65445 A1:B3 D1:XFD3">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="D1:D3">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF($A$4:$A$65445,D1)&gt;1,NOT(ISBLANK(D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A65445 A1:B3 E1:XFD3">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($A$4:$A$65445,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>asmdefAssetbundleName</t>
-  </si>
-  <si>
-    <t>asmdefName</t>
-  </si>
-  <si>
-    <t>asmdefDLLPath</t>
+    <t>asmdefDllName</t>
+  </si>
+  <si>
+    <t>asmdefDllPath</t>
+  </si>
+  <si>
+    <t>asmdefDllAssetbundleName</t>
+  </si>
+  <si>
+    <t>asmdefPdbPath</t>
+  </si>
+  <si>
+    <t>asmdefPdbAssetbundleName</t>
   </si>
   <si>
     <t>int</t>
@@ -37,16 +43,88 @@
     <t>路径ID</t>
   </si>
   <si>
+    <t>Asmdef名称</t>
+  </si>
+  <si>
+    <t>AsmdefDLL路径</t>
+  </si>
+  <si>
     <t>Asmdef资源文件名称</t>
   </si>
   <si>
-    <t>Asmdef名称</t>
-  </si>
-  <si>
-    <t>AsmdefDLL路径</t>
-  </si>
-  <si>
-    <t>m_1312111497</t>
+    <t>GameExample</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/GameExample.dll</t>
+  </si>
+  <si>
+    <t>m_377736839</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/GameExample.pdb</t>
+  </si>
+  <si>
+    <t>m_377736839_p</t>
+  </si>
+  <si>
+    <t>GameHotfix</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/GameHotfix.dll</t>
+  </si>
+  <si>
+    <t>m__1967578267</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/GameHotfix.pdb</t>
+  </si>
+  <si>
+    <t>m__1967578267_p</t>
+  </si>
+  <si>
+    <t>ProjectStart</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/ProjectStart.dll</t>
+  </si>
+  <si>
+    <t>m_6810217</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/ProjectStart.pdb</t>
+  </si>
+  <si>
+    <t>m_6810217_p</t>
+  </si>
+  <si>
+    <t>StrayFogCore</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/StrayFogCore.dll</t>
+  </si>
+  <si>
+    <t>m__63628856</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/StrayFogCore.pdb</t>
+  </si>
+  <si>
+    <t>m__63628856_p</t>
+  </si>
+  <si>
+    <t>StrayFogRunning</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/StrayFogRunning.dll</t>
+  </si>
+  <si>
+    <t>m_2033014866</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/StrayFogRunning.pdb</t>
+  </si>
+  <si>
+    <t>m_2033014866_p</t>
   </si>
   <si>
     <t>Cinemachine</t>
@@ -55,49 +133,43 @@
     <t>Library/ScriptAssemblies/Cinemachine.dll</t>
   </si>
   <si>
-    <t>m_377736839</t>
-  </si>
-  <si>
-    <t>GameExample</t>
-  </si>
-  <si>
-    <t>Library/ScriptAssemblies/GameExample.dll</t>
-  </si>
-  <si>
-    <t>m__1967578267</t>
-  </si>
-  <si>
-    <t>GameHotfix</t>
-  </si>
-  <si>
-    <t>Library/ScriptAssemblies/GameHotfix.dll</t>
-  </si>
-  <si>
-    <t>m__63628856</t>
-  </si>
-  <si>
-    <t>StrayFogCore</t>
-  </si>
-  <si>
-    <t>Library/ScriptAssemblies/StrayFogCore.dll</t>
-  </si>
-  <si>
-    <t>m_2033014866</t>
-  </si>
-  <si>
-    <t>StrayFogRunning</t>
-  </si>
-  <si>
-    <t>Library/ScriptAssemblies/StrayFogRunning.dll</t>
+    <t>m_1164487215</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/Cinemachine.pdb</t>
+  </si>
+  <si>
+    <t>m_1164487215_p</t>
+  </si>
+  <si>
+    <t>ILRuntime</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/ILRuntime.dll</t>
+  </si>
+  <si>
+    <t>m_1208534111</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/ILRuntime.pdb</t>
+  </si>
+  <si>
+    <t>m_1208534111_p</t>
+  </si>
+  <si>
+    <t>XLua</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/XLua.dll</t>
   </si>
   <si>
     <t>m_435346609</t>
   </si>
   <si>
-    <t>XLua</t>
-  </si>
-  <si>
-    <t>Library/ScriptAssemblies/XLua.dll</t>
+    <t>Library/ScriptAssemblies/XLua.pdb</t>
+  </si>
+  <si>
+    <t>m_435346609_p</t>
   </si>
 </sst>
 </file>
@@ -105,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="21">
@@ -132,6 +204,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -140,6 +277,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <scheme val="minor"/>
@@ -152,65 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -220,33 +318,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -278,181 +350,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,26 +535,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,6 +549,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,8 +595,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,162 +635,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,148 +789,148 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="14" applyFill="1" borderId="4" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="42" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="24" applyFill="1" borderId="3" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="5" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="23" applyFill="1" borderId="4" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="43" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="4" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="15" applyFill="1" borderId="8" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="15" applyFill="1" borderId="3" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="12" applyFill="1" borderId="1" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1214,18 +1286,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1" style="53"/>
-    <col min="2" max="2" width="32.75" customWidth="1" style="53"/>
-    <col min="3" max="3" width="23.625" customWidth="1" style="53"/>
-    <col min="4" max="4" width="32.75" customWidth="1" style="53"/>
+    <col min="2" max="2" width="23.625" customWidth="1" style="53"/>
+    <col min="3" max="3" width="49.375" customWidth="1" style="53"/>
+    <col min="4" max="4" width="37.375" customWidth="1" style="53"/>
+    <col min="5" max="5" width="49.375" customWidth="1" style="53"/>
+    <col min="6" max="6" width="37.375" customWidth="1" style="53"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" s="50" customFormat="1">
@@ -1241,75 +1315,111 @@
       <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1" s="51" customFormat="1">
       <c r="A2" s="51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="18.75" s="52" customFormat="1">
       <c r="A3" s="52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="53">
-        <v>-444119248</v>
+        <v>-1949415658</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="53">
-        <v>-1949415658</v>
+        <v>-1189599574</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="53">
-        <v>-1189599574</v>
+        <v>-901928859</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1317,13 +1427,19 @@
         <v>-408574838</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1331,42 +1447,104 @@
         <v>-998712748</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="53">
+        <v>-444119248</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="53">
+        <v>-50946859</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="53">
         <v>688748016</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>27</v>
+      <c r="B11" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF($A$4:$A$65445,B1)&gt;1,NOT(ISBLANK(B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C3">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF($A$4:$A$65445,C1)&gt;1,NOT(ISBLANK(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D3">
+  <conditionalFormatting sqref="E1:E3">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>AND(COUNTIF($A$3:$A$3,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF($A$4:$A$65445,D1)&gt;1,NOT(ISBLANK(D1)))</formula>
+      <formula>AND(COUNTIF($A$3:$A$3,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF($A$4:$A$65445,E1)&gt;1,NOT(ISBLANK(E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A65445 A1:B3 E1:XFD3">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F3">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF($A$4:$A$65445,F1)&gt;1,NOT(ISBLANK(F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A65445 D1:D3 G1:XFD3">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($A$4:$A$65445,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
@@ -82,19 +82,19 @@
     <t>m__1967578267_p</t>
   </si>
   <si>
-    <t>ProjectStart</t>
-  </si>
-  <si>
-    <t>Library/ScriptAssemblies/ProjectStart.dll</t>
-  </si>
-  <si>
-    <t>m_6810217</t>
-  </si>
-  <si>
-    <t>Library/ScriptAssemblies/ProjectStart.pdb</t>
-  </si>
-  <si>
-    <t>m_6810217_p</t>
+    <t>ProjectAPK</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/ProjectAPK.dll</t>
+  </si>
+  <si>
+    <t>m_1972191371</t>
+  </si>
+  <si>
+    <t>Library/ScriptAssemblies/ProjectAPK.pdb</t>
+  </si>
+  <si>
+    <t>m_1972191371_p</t>
   </si>
   <si>
     <t>StrayFogCore</t>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="6">
       <c r="A6" s="53">
-        <v>-901928859</v>
+        <v>-895211137</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>22</v>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -34,12 +34,18 @@
     <t>asmdefPdbAssetbundleName</t>
   </si>
   <si>
+    <t>isHotfix</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>路径ID</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t>Asmdef资源文件名称</t>
+  </si>
+  <si>
+    <t>是否是Hotfix程序集</t>
   </si>
   <si>
     <t>GameExample</t>
@@ -177,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="21">
@@ -205,19 +214,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -229,6 +245,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -236,28 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -269,21 +305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -295,23 +319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -350,175 +359,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +544,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,9 +573,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +606,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -588,35 +626,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,148 +649,148 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -789,148 +798,148 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="24" applyFill="1" borderId="3" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="42" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="13" applyFill="1" borderId="5" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="4" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="15" applyFill="1" borderId="8" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="15" applyFill="1" borderId="3" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="12" applyFill="1" borderId="1" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="43" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="18" applyFill="1" borderId="8" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="18" applyFill="1" borderId="5" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1286,13 +1295,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1" style="53"/>
     <col min="2" max="2" width="23.625" customWidth="1" style="53"/>
@@ -1300,6 +1309,7 @@
     <col min="4" max="4" width="37.375" customWidth="1" style="53"/>
     <col min="5" max="5" width="49.375" customWidth="1" style="53"/>
     <col min="6" max="6" width="37.375" customWidth="1" style="53"/>
+    <col min="7" max="7" width="49.375" customWidth="1" style="53"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" s="50" customFormat="1">
@@ -1321,45 +1331,54 @@
       <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="50" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1" s="51" customFormat="1">
       <c r="A2" s="51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="18.75" s="52" customFormat="1">
       <c r="A3" s="52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1367,19 +1386,22 @@
         <v>-1949415658</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="53">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1387,19 +1409,22 @@
         <v>-1189599574</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G5" s="53">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1407,19 +1432,22 @@
         <v>-895211137</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1427,19 +1455,22 @@
         <v>-408574838</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1447,19 +1478,22 @@
         <v>-998712748</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="G8" s="53">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1467,19 +1501,22 @@
         <v>-444119248</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="G9" s="53">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1487,19 +1524,22 @@
         <v>-50946859</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1507,19 +1547,22 @@
         <v>688748016</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="G11" s="53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1533,19 +1576,19 @@
       <formula>AND(COUNTIF($A$3:$A$3,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF(#REF!,C1)+COUNTIF($A$4:$A$65445,C1)&gt;1,NOT(ISBLANK(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E3">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>AND(COUNTIF($A$3:$A$3,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF($A$4:$A$65445,E1)&gt;1,NOT(ISBLANK(E1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F3">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF($A$4:$A$65445,F1)&gt;1,NOT(ISBLANK(F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A65445 D1:D3 G1:XFD3">
+  <conditionalFormatting sqref="A1:A65445 D1:D3 H1:XFD3">
     <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($A$4:$A$65445,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E3 G1:G3">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF(#REF!,E1)+COUNTIF($A$4:$A$65445,E1)&gt;1,NOT(ISBLANK(E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
@@ -67,13 +67,13 @@
     <t>Library/ScriptAssemblies/GameExample.dll</t>
   </si>
   <si>
-    <t>m_377736839</t>
+    <t>m_1770702064</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/GameExample.pdb</t>
   </si>
   <si>
-    <t>m_377736839_p</t>
+    <t>m_1770702064_p</t>
   </si>
   <si>
     <t>GameHotfix</t>
@@ -82,13 +82,13 @@
     <t>Library/ScriptAssemblies/GameHotfix.dll</t>
   </si>
   <si>
-    <t>m__1967578267</t>
+    <t>m_44316423</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/GameHotfix.pdb</t>
   </si>
   <si>
-    <t>m__1967578267_p</t>
+    <t>m_44316423_p</t>
   </si>
   <si>
     <t>ProjectAPK</t>
@@ -97,13 +97,13 @@
     <t>Library/ScriptAssemblies/ProjectAPK.dll</t>
   </si>
   <si>
-    <t>m_1972191371</t>
+    <t>m_4824999</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/ProjectAPK.pdb</t>
   </si>
   <si>
-    <t>m_1972191371_p</t>
+    <t>m_4824999_p</t>
   </si>
   <si>
     <t>StrayFogCore</t>
@@ -112,13 +112,13 @@
     <t>Library/ScriptAssemblies/StrayFogCore.dll</t>
   </si>
   <si>
-    <t>m__63628856</t>
+    <t>m_2061928783</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/StrayFogCore.pdb</t>
   </si>
   <si>
-    <t>m__63628856_p</t>
+    <t>m_2061928783_p</t>
   </si>
   <si>
     <t>StrayFogRunning</t>
@@ -127,13 +127,13 @@
     <t>Library/ScriptAssemblies/StrayFogRunning.dll</t>
   </si>
   <si>
-    <t>m_2033014866</t>
+    <t>m__2028589979</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/StrayFogRunning.pdb</t>
   </si>
   <si>
-    <t>m_2033014866_p</t>
+    <t>m__2028589979_p</t>
   </si>
   <si>
     <t>Cinemachine</t>
@@ -142,13 +142,13 @@
     <t>Library/ScriptAssemblies/Cinemachine.dll</t>
   </si>
   <si>
-    <t>m_1164487215</t>
+    <t>m__266381247</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/Cinemachine.pdb</t>
   </si>
   <si>
-    <t>m_1164487215_p</t>
+    <t>m__266381247_p</t>
   </si>
   <si>
     <t>ILRuntime</t>
@@ -157,13 +157,13 @@
     <t>Library/ScriptAssemblies/ILRuntime.dll</t>
   </si>
   <si>
-    <t>m_1208534111</t>
+    <t>m__352573084</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/ILRuntime.pdb</t>
   </si>
   <si>
-    <t>m_1208534111_p</t>
+    <t>m__352573084_p</t>
   </si>
   <si>
     <t>XLua</t>
@@ -172,13 +172,13 @@
     <t>Library/ScriptAssemblies/XLua.dll</t>
   </si>
   <si>
-    <t>m_435346609</t>
+    <t>m__1360387061</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/XLua.pdb</t>
   </si>
   <si>
-    <t>m_435346609_p</t>
+    <t>m__1360387061_p</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="4">
       <c r="A4" s="53">
-        <v>-1949415658</v>
+        <v>868207728</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>15</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="5">
       <c r="A5" s="53">
-        <v>-1189599574</v>
+        <v>1330698698</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>20</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="6">
       <c r="A6" s="53">
-        <v>-895211137</v>
+        <v>-439436769</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>25</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="7">
       <c r="A7" s="53">
-        <v>-408574838</v>
+        <v>62007871</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>30</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="8">
       <c r="A8" s="53">
-        <v>-998712748</v>
+        <v>-230893777</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>35</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="9">
       <c r="A9" s="53">
-        <v>-444119248</v>
+        <v>1121690419</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>40</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="10">
       <c r="A10" s="53">
-        <v>-50946859</v>
+        <v>1776363766</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>45</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="11">
       <c r="A11" s="53">
-        <v>688748016</v>
+        <v>-1198860131</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>50</v>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AsmdefMap.xlsx
@@ -67,13 +67,13 @@
     <t>Library/ScriptAssemblies/GameExample.dll</t>
   </si>
   <si>
-    <t>m_1770702064</t>
+    <t>assets/example/m_1770702064</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/GameExample.pdb</t>
   </si>
   <si>
-    <t>m_1770702064_p</t>
+    <t>assets/example/m_1770702064_p</t>
   </si>
   <si>
     <t>GameHotfix</t>
@@ -82,13 +82,13 @@
     <t>Library/ScriptAssemblies/GameHotfix.dll</t>
   </si>
   <si>
-    <t>m_44316423</t>
+    <t>assets/game/m_44316423</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/GameHotfix.pdb</t>
   </si>
   <si>
-    <t>m_44316423_p</t>
+    <t>assets/game/m_44316423_p</t>
   </si>
   <si>
     <t>ProjectAPK</t>
@@ -97,13 +97,13 @@
     <t>Library/ScriptAssemblies/ProjectAPK.dll</t>
   </si>
   <si>
-    <t>m_4824999</t>
+    <t>assets/project/m_4824999</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/ProjectAPK.pdb</t>
   </si>
   <si>
-    <t>m_4824999_p</t>
+    <t>assets/project/m_4824999_p</t>
   </si>
   <si>
     <t>StrayFogCore</t>
@@ -112,13 +112,13 @@
     <t>Library/ScriptAssemblies/StrayFogCore.dll</t>
   </si>
   <si>
-    <t>m_2061928783</t>
+    <t>assets/strayfog/core/m_2061928783</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/StrayFogCore.pdb</t>
   </si>
   <si>
-    <t>m_2061928783_p</t>
+    <t>assets/strayfog/core/m_2061928783_p</t>
   </si>
   <si>
     <t>StrayFogRunning</t>
@@ -127,13 +127,13 @@
     <t>Library/ScriptAssemblies/StrayFogRunning.dll</t>
   </si>
   <si>
-    <t>m__2028589979</t>
+    <t>assets/strayfog/running/m__2028589979</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/StrayFogRunning.pdb</t>
   </si>
   <si>
-    <t>m__2028589979_p</t>
+    <t>assets/strayfog/running/m__2028589979_p</t>
   </si>
   <si>
     <t>Cinemachine</t>
@@ -142,13 +142,13 @@
     <t>Library/ScriptAssemblies/Cinemachine.dll</t>
   </si>
   <si>
-    <t>m__266381247</t>
+    <t>assets/thirdplugins/cinemachine/m__266381247</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/Cinemachine.pdb</t>
   </si>
   <si>
-    <t>m__266381247_p</t>
+    <t>assets/thirdplugins/cinemachine/m__266381247_p</t>
   </si>
   <si>
     <t>ILRuntime</t>
@@ -157,13 +157,13 @@
     <t>Library/ScriptAssemblies/ILRuntime.dll</t>
   </si>
   <si>
-    <t>m__352573084</t>
+    <t>assets/thirdplugins/ilruntimehotfix/m__352573084</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/ILRuntime.pdb</t>
   </si>
   <si>
-    <t>m__352573084_p</t>
+    <t>assets/thirdplugins/ilruntimehotfix/m__352573084_p</t>
   </si>
   <si>
     <t>XLua</t>
@@ -172,13 +172,13 @@
     <t>Library/ScriptAssemblies/XLua.dll</t>
   </si>
   <si>
-    <t>m__1360387061</t>
+    <t>assets/xlua/m__1360387061</t>
   </si>
   <si>
     <t>Library/ScriptAssemblies/XLua.pdb</t>
   </si>
   <si>
-    <t>m__1360387061_p</t>
+    <t>assets/xlua/m__1360387061_p</t>
   </si>
 </sst>
 </file>
